--- a/ReclamationAssumeInflow2022/ReclamationAssumptionInflow2022-2023.xlsx
+++ b/ReclamationAssumeInflow2022/ReclamationAssumptionInflow2022-2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\RCode\ColoradoRiverCollaborateCoding\RelclamationAssumeInflow2022-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\RCode\ColoradoRiverCollaborate\ReclamationAssumeInflow2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F861C1B5-577D-4725-8C96-FDC26333A941}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F31056D-CE77-4199-B04A-8F0FA081CB9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7670" xr2:uid="{FC8749A4-0712-4EE0-99C2-7C05CB6AC5C0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>What Basin natural flow did Reclamation assume in asking for 2 to 4 million acre-feet of additional water use reductions on top of prior agreed reductions</t>
   </si>
@@ -63,24 +63,15 @@
     <t>I. Lake Powell Regulated Inflow (min probable)</t>
   </si>
   <si>
-    <t>J. Upper Basin Consumptive Use</t>
-  </si>
-  <si>
     <t>H. Assumed Lake Powel natural flow (E - F - G)</t>
   </si>
   <si>
     <t>Scenario (all values million acre-feet per year)</t>
   </si>
   <si>
-    <t>L. Resulting Pake Powell drawdown (H - K)</t>
-  </si>
-  <si>
     <t>Line Item (2021 to 2022)</t>
   </si>
   <si>
-    <t>K. Actual Lake Powell natural flow (I + J)</t>
-  </si>
-  <si>
     <t>Base Case (no additional reduction)</t>
   </si>
   <si>
@@ -106,6 +97,24 @@
   </si>
   <si>
     <t xml:space="preserve">  4. 4 maf additional water use reduction will raise Lake Powell level by 2 maf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     A1. Lower Basin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     A2. Upper Basin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     A3. Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     A4. Lower Basin Losses (Mead and ET)</t>
+  </si>
+  <si>
+    <t>J. Actual Lake Powell natural flow (A3 + I)</t>
+  </si>
+  <si>
+    <t>K. Resulting Pake Powell drawdown (H - J)</t>
   </si>
 </sst>
 </file>
@@ -251,7 +260,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -267,41 +276,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -620,9 +639,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6351335B-45D7-4D92-A275-56EAA887851C}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -645,24 +670,24 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="B4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:8" ht="62" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -678,354 +703,426 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="13">
-        <f>7.5+1.5+4+1.2</f>
+      <c r="A6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="12">
+        <f>SUM(B7:B10)</f>
         <v>14.2</v>
       </c>
-      <c r="C6" s="13">
-        <f>7.5+1.5+4+1.2</f>
+      <c r="C6" s="12">
+        <f t="shared" ref="C6:G6" si="0">SUM(C7:C10)</f>
         <v>14.2</v>
       </c>
-      <c r="D6" s="13">
-        <f t="shared" ref="D6:G6" si="0">7.5+1.5+4+1.2</f>
-        <v>14.2</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="D6" s="12">
         <f t="shared" si="0"/>
         <v>14.2</v>
       </c>
-      <c r="F6" s="13">
+      <c r="E6" s="12">
         <f t="shared" si="0"/>
         <v>14.2</v>
       </c>
-      <c r="G6" s="13">
+      <c r="F6" s="12">
         <f t="shared" si="0"/>
         <v>14.2</v>
       </c>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="G6" s="12">
+        <f t="shared" si="0"/>
+        <v>14.2</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="C7" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="D7" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="E7" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="F7" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="G7" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="19">
+        <v>4</v>
+      </c>
+      <c r="C8" s="19">
+        <v>4</v>
+      </c>
+      <c r="D8" s="19">
+        <v>4</v>
+      </c>
+      <c r="E8" s="19">
+        <v>4</v>
+      </c>
+      <c r="F8" s="19">
+        <v>4</v>
+      </c>
+      <c r="G8" s="19">
+        <v>4</v>
+      </c>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="D9" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="D10" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="E10" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="F10" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="G10" s="19">
+        <v>1.2</v>
+      </c>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B11" s="7">
         <v>1.375</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C11" s="7">
         <v>1.375</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D11" s="7">
         <v>1.375</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E11" s="7">
         <v>1.375</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F11" s="7">
         <v>1.375</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G11" s="7">
         <v>1.375</v>
       </c>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B12" s="7">
         <v>0.5</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C12" s="7">
         <v>0.5</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D12" s="7">
         <v>0.5</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E12" s="7">
         <v>0.5</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F12" s="7">
         <v>0.5</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G12" s="7">
         <v>0.5</v>
       </c>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B13" s="12">
         <v>0</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C13" s="12">
         <v>1.2</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D13" s="12">
         <v>2</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E13" s="12">
         <v>2</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F13" s="12">
         <v>4</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G13" s="12">
         <v>4</v>
       </c>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="14">
-        <f>B6-B7-B8-B9</f>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="13">
+        <f>B6-B11-B12-B13</f>
         <v>12.324999999999999</v>
       </c>
-      <c r="C10" s="14">
-        <f>C6-C7-C8-C9</f>
+      <c r="C14" s="13">
+        <f t="shared" ref="C14:G14" si="1">C6-C11-C12-C13</f>
         <v>11.125</v>
       </c>
-      <c r="D10" s="14">
-        <f>D6-D7-D8-D9</f>
+      <c r="D14" s="13">
+        <f t="shared" si="1"/>
         <v>10.324999999999999</v>
       </c>
-      <c r="E10" s="14">
-        <f>E6-E7-E8-E9</f>
+      <c r="E14" s="13">
+        <f t="shared" si="1"/>
         <v>10.324999999999999</v>
       </c>
-      <c r="F10" s="14">
-        <f>F6-F7-F8-F9</f>
+      <c r="F14" s="13">
+        <f t="shared" si="1"/>
         <v>8.3249999999999993</v>
       </c>
-      <c r="G10" s="14">
-        <f>G6-G7-G8-G9</f>
+      <c r="G14" s="13">
+        <f t="shared" si="1"/>
         <v>8.3249999999999993</v>
       </c>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B15" s="12">
         <v>0.6</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C15" s="12">
         <v>0.6</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D15" s="12">
         <v>0.6</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E15" s="12">
         <v>1</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F15" s="12">
         <v>0.6</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G15" s="12">
         <v>1</v>
       </c>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B16" s="5">
         <v>0.2</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C16" s="5">
         <v>0.2</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D16" s="5">
         <v>0.2</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E16" s="5">
         <v>0.2</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F16" s="5">
         <v>0.2</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G16" s="5">
         <v>0.2</v>
       </c>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="14">
-        <f>B10-B11-B12</f>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="13">
+        <f t="shared" ref="B17:G17" si="2">B14-B15-B16</f>
         <v>11.525</v>
       </c>
-      <c r="C13" s="14">
-        <f>C10-C11-C12</f>
+      <c r="C17" s="13">
+        <f t="shared" si="2"/>
         <v>10.325000000000001</v>
       </c>
-      <c r="D13" s="14">
-        <f>D10-D11-D12</f>
+      <c r="D17" s="13">
+        <f t="shared" si="2"/>
         <v>9.5250000000000004</v>
       </c>
-      <c r="E13" s="14">
-        <f>E10-E11-E12</f>
+      <c r="E17" s="13">
+        <f t="shared" si="2"/>
         <v>9.125</v>
       </c>
-      <c r="F13" s="14">
-        <f>F10-F11-F12</f>
+      <c r="F17" s="13">
+        <f t="shared" si="2"/>
         <v>7.5249999999999995</v>
       </c>
-      <c r="G13" s="14">
-        <f>G10-G11-G12</f>
+      <c r="G17" s="13">
+        <f t="shared" si="2"/>
         <v>7.1249999999999991</v>
       </c>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B18" s="5">
         <v>5.3</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C18" s="5">
         <v>5.3</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D18" s="5">
         <v>5.3</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E18" s="5">
         <v>5.3</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F18" s="5">
         <v>5.3</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G18" s="5">
         <v>5.3</v>
       </c>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="5">
-        <v>4</v>
-      </c>
-      <c r="C15" s="5">
-        <v>4</v>
-      </c>
-      <c r="D15" s="5">
-        <v>4</v>
-      </c>
-      <c r="E15" s="5">
-        <v>4</v>
-      </c>
-      <c r="F15" s="5">
-        <v>4</v>
-      </c>
-      <c r="G15" s="5">
-        <v>4</v>
-      </c>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="16">
-        <f>SUM(B14:B15)</f>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="15">
+        <f>SUM(B8,B18)</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="C16" s="16">
-        <f>SUM(C14:C15)</f>
+      <c r="C19" s="15">
+        <f>SUM(C8,C18)</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="D16" s="16">
-        <f>SUM(D14:D15)</f>
+      <c r="D19" s="15">
+        <f>SUM(D8,D18)</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="E16" s="16">
-        <f>SUM(E14:E15)</f>
+      <c r="E19" s="15">
+        <f>SUM(E8,E18)</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="F16" s="16">
-        <f>SUM(F14:F15)</f>
+      <c r="F19" s="15">
+        <f>SUM(F8,F18)</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="G16" s="16">
-        <f>SUM(G14:G15)</f>
+      <c r="G19" s="15">
+        <f>SUM(G8,G18)</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="10">
-        <f>B13-B16</f>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="9">
+        <f>B17-B19</f>
         <v>2.2249999999999996</v>
       </c>
-      <c r="C18" s="10">
-        <f>C13-C16</f>
+      <c r="C21" s="9">
+        <f>C17-C19</f>
         <v>1.0250000000000004</v>
       </c>
-      <c r="D18" s="10">
-        <f>D13-D16</f>
+      <c r="D21" s="9">
+        <f>D17-D19</f>
         <v>0.22499999999999964</v>
       </c>
-      <c r="E18" s="10">
-        <f>E13-E16</f>
+      <c r="E21" s="9">
+        <f>E17-E19</f>
         <v>-0.17500000000000071</v>
       </c>
-      <c r="F18" s="10">
-        <f>F13-F16</f>
+      <c r="F21" s="9">
+        <f>F17-F19</f>
         <v>-1.7750000000000012</v>
       </c>
-      <c r="G18" s="10">
-        <f>G13-G16</f>
+      <c r="G21" s="9">
+        <f>G17-G19</f>
         <v>-2.1750000000000016</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
